--- a/133_GESTPROJ_Nael_Sergio.xlsx
+++ b/133_GESTPROJ_Nael_Sergio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/nael_currat_studentfr_ch/Documents/3emeAnnee/133/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/nael_currat_studentfr_ch/Documents/3emeAnnee/133/133_Projet_Groupe2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90AC9D39-6CB7-4A9D-BBE0-464BEF9A298A}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B64059-B439-4AB5-A762-BFFB9DBF47B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>Planning</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Diagrame de sequence</t>
+  </si>
+  <si>
+    <t>Diagramme analyse Use Case</t>
+  </si>
+  <si>
+    <t>Finition Diagramme Use Case + Diagramme Analyse Sequence</t>
   </si>
 </sst>
 </file>
@@ -883,48 +889,48 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,10 +946,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1238,8 +1240,8 @@
   </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1250,64 +1252,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="47">
         <v>300232</v>
       </c>
-      <c r="N3" s="44"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="48"/>
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1317,32 +1319,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="45" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="45" t="s">
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="45" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="46"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -1411,13 +1413,13 @@
       <c r="E9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="52" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="12"/>
@@ -1436,9 +1438,9 @@
       <c r="C10" s="7"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="12"/>
       <c r="J10" s="7"/>
       <c r="K10" s="13"/>
@@ -1457,9 +1459,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="52"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="53"/>
       <c r="I11" s="39"/>
       <c r="J11" s="7"/>
       <c r="K11" s="13"/>
@@ -1478,11 +1480,15 @@
       <c r="C12" s="7"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="38"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="K12" s="40"/>
       <c r="L12" s="12"/>
       <c r="M12" s="7"/>
@@ -1499,11 +1505,13 @@
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="52"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="12"/>
       <c r="M13" s="7"/>
@@ -1518,9 +1526,9 @@
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="52"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="12"/>
       <c r="J14" s="7"/>
       <c r="K14" s="13"/>
@@ -1539,9 +1547,9 @@
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="52"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="12"/>
       <c r="J15" s="7"/>
       <c r="K15" s="13"/>
@@ -1560,9 +1568,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="52"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="12"/>
       <c r="J16" s="6"/>
       <c r="K16" s="11"/>
@@ -1579,9 +1587,9 @@
       <c r="C17" s="7"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="52"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="12"/>
       <c r="J17" s="7"/>
       <c r="K17" s="13"/>
@@ -1598,9 +1606,9 @@
       <c r="C18" s="7"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="52"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="12"/>
       <c r="J18" s="7"/>
       <c r="K18" s="13"/>
@@ -1619,9 +1627,9 @@
       <c r="C19" s="7"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="52"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="12"/>
       <c r="J19" s="7"/>
       <c r="K19" s="13"/>
@@ -1640,9 +1648,9 @@
       <c r="C20" s="7"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="52"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="12"/>
       <c r="J20" s="7"/>
       <c r="K20" s="11"/>
@@ -1661,9 +1669,9 @@
       <c r="C21" s="7"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="52"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="12"/>
       <c r="J21" s="7"/>
       <c r="K21" s="11"/>
@@ -1682,9 +1690,9 @@
       <c r="C22" s="7"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="52"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="12"/>
       <c r="J22" s="7"/>
       <c r="K22" s="13"/>
@@ -1703,9 +1711,9 @@
       <c r="C23" s="7"/>
       <c r="D23" s="13"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="52"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="12"/>
       <c r="J23" s="7"/>
       <c r="K23" s="13"/>
@@ -1724,9 +1732,9 @@
       <c r="C24" s="7"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="52"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="12"/>
       <c r="J24" s="7"/>
       <c r="K24" s="13"/>
@@ -1743,9 +1751,9 @@
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="52"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="12"/>
       <c r="J25" s="7"/>
       <c r="K25" s="13"/>
@@ -1762,9 +1770,9 @@
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="52"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="30"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
@@ -1783,9 +1791,9 @@
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="52"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="30"/>
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
@@ -1802,9 +1810,9 @@
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="52"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="30"/>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
@@ -1820,35 +1828,30 @@
         <v>22</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F9:F29"/>
-    <mergeCell ref="G9:G29"/>
-    <mergeCell ref="H9:H29"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -1856,6 +1859,11 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F9:F29"/>
+    <mergeCell ref="G9:G29"/>
+    <mergeCell ref="H9:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1873,8 +1881,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,11 +1893,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1922,14 +1930,26 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="23">
+        <v>45400</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="24">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="23">
+        <v>45401</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
@@ -1998,7 +2018,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,11 +2083,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2223,12 +2243,59 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2686,65 +2753,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2770,19 +2800,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_Nael_Sergio.xlsx
+++ b/133_GESTPROJ_Nael_Sergio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/nael_currat_studentfr_ch/Documents/3emeAnnee/133/133_Projet_Groupe2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/sergio_yaguachiroldan_studentfr_ch/Documents/3_Annee/Module 133/133_Projet_Groupe2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B64059-B439-4AB5-A762-BFFB9DBF47B5}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD89256-38CE-46E1-888F-3C9CA77068D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>Planning</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Sergio Yaguachi</t>
   </si>
   <si>
-    <t>Use case</t>
-  </si>
-  <si>
     <t>Diagramme classe</t>
   </si>
   <si>
@@ -314,20 +311,47 @@
     <t>X</t>
   </si>
   <si>
-    <t>Diagrame de sequence</t>
-  </si>
-  <si>
-    <t>Diagramme analyse Use Case</t>
-  </si>
-  <si>
-    <t>Finition Diagramme Use Case + Diagramme Analyse Sequence</t>
+    <t>J'ai fait le Use case client 2 et le use case rest 2 et j'ai commencé avec mon collegue Nael le use case API gateway</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Nael</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Use case client 1</t>
+  </si>
+  <si>
+    <t>Use case client 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use case rest 1 </t>
+  </si>
+  <si>
+    <t>Use case rest 2</t>
+  </si>
+  <si>
+    <t>Use case ApiGateway</t>
+  </si>
+  <si>
+    <t>Diagrame de sequence apigtw rest 1</t>
+  </si>
+  <si>
+    <t>Diagrame de sequence apigtw rest 2</t>
+  </si>
+  <si>
+    <t>J'ai fait le Use case client 1 et le use case rest 1 et j'ai commencé avec mon collegue Sergio le use case API gateway</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,8 +435,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +497,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -813,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -892,6 +941,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,12 +960,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,12 +980,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,78 +1291,78 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="11" width="8" customWidth="1"/>
     <col min="12" max="17" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="48"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="45">
         <v>300232</v>
       </c>
-      <c r="N3" s="48"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="48"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1319,32 +1372,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="44" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="44" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="44" t="s">
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -1402,24 +1455,24 @@
         <v>20</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="54" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="12"/>
@@ -1438,9 +1491,9 @@
       <c r="C10" s="7"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="53"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="12"/>
       <c r="J10" s="7"/>
       <c r="K10" s="13"/>
@@ -1459,9 +1512,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="53"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="39"/>
       <c r="J11" s="7"/>
       <c r="K11" s="13"/>
@@ -1474,21 +1527,19 @@
     </row>
     <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="38"/>
       <c r="K12" s="40"/>
       <c r="L12" s="12"/>
       <c r="M12" s="7"/>
@@ -1499,20 +1550,20 @@
     </row>
     <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="13"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="12"/>
       <c r="M13" s="7"/>
       <c r="N13" s="13"/>
@@ -1521,16 +1572,20 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="38"/>
       <c r="K14" s="13"/>
       <c r="L14" s="12"/>
       <c r="M14" s="7"/>
@@ -1539,19 +1594,21 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>6</v>
+    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="7"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="38"/>
       <c r="K15" s="13"/>
       <c r="L15" s="12"/>
       <c r="M15" s="7"/>
@@ -1562,18 +1619,22 @@
     </row>
     <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="11"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="13"/>
       <c r="L16" s="12"/>
       <c r="M16" s="7"/>
       <c r="N16" s="13"/>
@@ -1582,16 +1643,20 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="53"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="60" t="s">
+        <v>57</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1601,16 +1666,20 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="53"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="59" t="s">
+        <v>57</v>
+      </c>
       <c r="K18" s="13"/>
       <c r="L18" s="12"/>
       <c r="M18" s="7"/>
@@ -1621,15 +1690,15 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="53"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="12"/>
       <c r="J19" s="7"/>
       <c r="K19" s="13"/>
@@ -1642,78 +1711,74 @@
     </row>
     <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="53"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="12"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="53"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="55"/>
       <c r="I21" s="12"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="11"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="12"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="53"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="12"/>
       <c r="J22" s="7"/>
       <c r="K22" s="13"/>
       <c r="L22" s="12"/>
       <c r="M22" s="7"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="10"/>
+      <c r="O22" s="12"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
       <c r="D23" s="13"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="53"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="12"/>
       <c r="J23" s="7"/>
       <c r="K23" s="13"/>
@@ -1726,132 +1791,239 @@
     </row>
     <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="53"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="12"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="13"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="11"/>
       <c r="O24" s="12"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="11"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="53"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="12"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="13"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="11"/>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="32"/>
-    </row>
-    <row r="27" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37"/>
-    </row>
-    <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="32"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
+    </row>
+    <row r="32" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="42"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="58"/>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F9:F33"/>
+    <mergeCell ref="G9:G33"/>
+    <mergeCell ref="H9:H33"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -1859,11 +2031,6 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F9:F29"/>
-    <mergeCell ref="G9:G29"/>
-    <mergeCell ref="H9:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1881,8 +2048,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,11 +2060,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1929,27 +2096,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>45400</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C8" s="24">
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>45401</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="24">
-        <v>2</v>
-      </c>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
@@ -2018,7 +2179,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2071,8 +2232,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,11 +2244,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2119,10 +2280,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="24"/>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>45401</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="24">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
@@ -2196,7 +2363,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,59 +2410,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2753,28 +2873,65 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2800,9 +2957,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_Nael_Sergio.xlsx
+++ b/133_GESTPROJ_Nael_Sergio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/sergio_yaguachiroldan_studentfr_ch/Documents/3_Annee/Module 133/133_Projet_Groupe2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nael\projet\133_Projet_Groupe2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD89256-38CE-46E1-888F-3C9CA77068D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D12C97C-8C17-4908-ABFE-B7C7F382F665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Planning</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>J'ai fait le Use case client 1 et le use case rest 1 et j'ai commencé avec mon collegue Sergio le use case API gateway</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -941,18 +944,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,6 +955,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,10 +981,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,7 +1297,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1305,64 +1308,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="51">
         <v>300232</v>
       </c>
-      <c r="N3" s="47"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1466,13 +1469,13 @@
       <c r="E9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="56" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="12"/>
@@ -1491,9 +1494,9 @@
       <c r="C10" s="7"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="12"/>
       <c r="J10" s="7"/>
       <c r="K10" s="13"/>
@@ -1512,9 +1515,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="55"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="39"/>
       <c r="J11" s="7"/>
       <c r="K11" s="13"/>
@@ -1533,10 +1536,10 @@
       <c r="C12" s="7"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="60" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="47" t="s">
         <v>57</v>
       </c>
       <c r="J12" s="38"/>
@@ -1556,15 +1559,17 @@
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="59" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="46" t="s">
         <v>57</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="40"/>
-      <c r="L13" s="12"/>
+      <c r="L13" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="13"/>
       <c r="O13" s="12"/>
@@ -1579,10 +1584,10 @@
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="60" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="47" t="s">
         <v>57</v>
       </c>
       <c r="J14" s="38"/>
@@ -1602,10 +1607,10 @@
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="59" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="46" t="s">
         <v>57</v>
       </c>
       <c r="J15" s="38"/>
@@ -1625,9 +1630,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="10" t="s">
         <v>57</v>
       </c>
@@ -1650,11 +1655,11 @@
       <c r="C17" s="7"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="47" t="s">
         <v>57</v>
       </c>
       <c r="K17" s="13"/>
@@ -1673,11 +1678,11 @@
       <c r="C18" s="7"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="55"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="46" t="s">
         <v>57</v>
       </c>
       <c r="K18" s="13"/>
@@ -1696,9 +1701,9 @@
       <c r="C19" s="7"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="12"/>
       <c r="J19" s="7"/>
       <c r="K19" s="13"/>
@@ -1717,9 +1722,9 @@
       <c r="C20" s="7"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="12"/>
       <c r="J20" s="6"/>
       <c r="K20" s="11"/>
@@ -1736,9 +1741,9 @@
       <c r="C21" s="7"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="55"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="57"/>
       <c r="I21" s="12"/>
       <c r="J21" s="7"/>
       <c r="K21" s="13"/>
@@ -1755,9 +1760,9 @@
       <c r="C22" s="7"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="55"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="12"/>
       <c r="J22" s="7"/>
       <c r="K22" s="13"/>
@@ -1776,9 +1781,9 @@
       <c r="C23" s="7"/>
       <c r="D23" s="13"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="55"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="12"/>
       <c r="J23" s="7"/>
       <c r="K23" s="13"/>
@@ -1797,9 +1802,9 @@
       <c r="C24" s="7"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="55"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="12"/>
       <c r="J24" s="7"/>
       <c r="K24" s="11"/>
@@ -1818,9 +1823,9 @@
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="55"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="12"/>
       <c r="J25" s="7"/>
       <c r="K25" s="11"/>
@@ -1839,9 +1844,9 @@
       <c r="C26" s="7"/>
       <c r="D26" s="13"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="7"/>
       <c r="K26" s="13"/>
@@ -1860,9 +1865,9 @@
       <c r="C27" s="7"/>
       <c r="D27" s="13"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="55"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="12"/>
       <c r="J27" s="7"/>
       <c r="K27" s="13"/>
@@ -1881,9 +1886,9 @@
       <c r="C28" s="7"/>
       <c r="D28" s="13"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="7"/>
       <c r="K28" s="13"/>
@@ -1900,9 +1905,9 @@
       <c r="C29" s="7"/>
       <c r="D29" s="13"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="55"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="12"/>
       <c r="J29" s="7"/>
       <c r="K29" s="13"/>
@@ -1919,9 +1924,9 @@
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="30"/>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -1940,9 +1945,9 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="30"/>
       <c r="J31" s="31"/>
       <c r="K31" s="32"/>
@@ -1959,9 +1964,9 @@
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="30"/>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
@@ -1986,9 +1991,9 @@
       <c r="E33" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="56"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="58"/>
       <c r="I33" s="43"/>
       <c r="J33" s="41"/>
       <c r="K33" s="42"/>
@@ -2000,30 +2005,25 @@
       <c r="Q33" s="42"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="45"/>
       <c r="B37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="46"/>
       <c r="B38" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F9:F33"/>
-    <mergeCell ref="G9:G33"/>
-    <mergeCell ref="H9:H33"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -2031,6 +2031,11 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F9:F33"/>
+    <mergeCell ref="G9:G33"/>
+    <mergeCell ref="H9:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2060,11 +2065,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2244,11 +2249,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2410,12 +2415,59 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2873,65 +2925,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2957,19 +2972,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_Nael_Sergio.xlsx
+++ b/133_GESTPROJ_Nael_Sergio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nael\projet\133_Projet_Groupe2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D12C97C-8C17-4908-ABFE-B7C7F382F665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CA599-1EA2-41AF-ABB5-B99FD7E278E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>Planning</t>
   </si>
@@ -348,6 +348,24 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>J'ai tester mon APIRest1 et je l'ai corriger car il y avait des erreurs</t>
+  </si>
+  <si>
+    <t>J'ai finis mon APIRest1 et je l'ai héberger sur le serveur Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai héberger ma base de données et mon Rest1 sur le serveur docker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai commencer à coder l'APIGTW avec mon collègue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai héberger ma base de données et mon Rest2 sur le serveur docker </t>
+  </si>
+  <si>
+    <t>J'ai finis mon APIRest2 et je l'ai héberger sur le serveur Docker</t>
   </si>
 </sst>
 </file>
@@ -948,6 +966,18 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,12 +985,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,12 +1004,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,8 +1314,8 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1308,64 +1326,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="49">
         <v>300232</v>
       </c>
-      <c r="N3" s="52"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1375,32 +1393,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="48" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="48" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="48" t="s">
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -1469,13 +1487,13 @@
       <c r="E9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="58" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="12"/>
@@ -1494,9 +1512,9 @@
       <c r="C10" s="7"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="57"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="12"/>
       <c r="J10" s="7"/>
       <c r="K10" s="13"/>
@@ -1515,9 +1533,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="39"/>
       <c r="J11" s="7"/>
       <c r="K11" s="13"/>
@@ -1536,9 +1554,9 @@
       <c r="C12" s="7"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="47" t="s">
         <v>57</v>
       </c>
@@ -1559,9 +1577,9 @@
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="46" t="s">
         <v>57</v>
       </c>
@@ -1584,9 +1602,9 @@
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="47" t="s">
         <v>57</v>
       </c>
@@ -1607,9 +1625,9 @@
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="46" t="s">
         <v>57</v>
       </c>
@@ -1630,9 +1648,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="10" t="s">
         <v>57</v>
       </c>
@@ -1655,9 +1673,9 @@
       <c r="C17" s="7"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="12"/>
       <c r="J17" s="47" t="s">
         <v>57</v>
@@ -1678,9 +1696,9 @@
       <c r="C18" s="7"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="57"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="12"/>
       <c r="J18" s="46" t="s">
         <v>57</v>
@@ -1701,9 +1719,9 @@
       <c r="C19" s="7"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="12"/>
       <c r="J19" s="7"/>
       <c r="K19" s="13"/>
@@ -1722,12 +1740,16 @@
       <c r="C20" s="7"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="11"/>
+      <c r="J20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L20" s="12"/>
       <c r="M20" s="7"/>
       <c r="N20" s="13"/>
@@ -1741,9 +1763,9 @@
       <c r="C21" s="7"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="57"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="12"/>
       <c r="J21" s="7"/>
       <c r="K21" s="13"/>
@@ -1760,9 +1782,9 @@
       <c r="C22" s="7"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="57"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="59"/>
       <c r="I22" s="12"/>
       <c r="J22" s="7"/>
       <c r="K22" s="13"/>
@@ -1781,9 +1803,9 @@
       <c r="C23" s="7"/>
       <c r="D23" s="13"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="57"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="12"/>
       <c r="J23" s="7"/>
       <c r="K23" s="13"/>
@@ -1802,14 +1824,18 @@
       <c r="C24" s="7"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="57"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="12"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
       <c r="P24" s="7"/>
@@ -1823,15 +1849,21 @@
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="57"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="12"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="10"/>
+      <c r="K25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="M25" s="6"/>
-      <c r="N25" s="11"/>
+      <c r="N25" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="13"/>
@@ -1844,15 +1876,19 @@
       <c r="C26" s="7"/>
       <c r="D26" s="13"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="57"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="12"/>
       <c r="J26" s="7"/>
       <c r="K26" s="13"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="13"/>
+      <c r="M26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="O26" s="10"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="13"/>
@@ -1865,9 +1901,9 @@
       <c r="C27" s="7"/>
       <c r="D27" s="13"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="12"/>
       <c r="J27" s="7"/>
       <c r="K27" s="13"/>
@@ -1886,9 +1922,9 @@
       <c r="C28" s="7"/>
       <c r="D28" s="13"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="57"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="12"/>
       <c r="J28" s="7"/>
       <c r="K28" s="13"/>
@@ -1905,9 +1941,9 @@
       <c r="C29" s="7"/>
       <c r="D29" s="13"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="57"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="59"/>
       <c r="I29" s="12"/>
       <c r="J29" s="7"/>
       <c r="K29" s="13"/>
@@ -1924,9 +1960,9 @@
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="57"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="30"/>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -1945,9 +1981,9 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="57"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="30"/>
       <c r="J31" s="31"/>
       <c r="K31" s="32"/>
@@ -1964,9 +2000,9 @@
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="57"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="30"/>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
@@ -1991,9 +2027,9 @@
       <c r="E33" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="58"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="43"/>
       <c r="J33" s="41"/>
       <c r="K33" s="42"/>
@@ -2024,6 +2060,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F9:F33"/>
+    <mergeCell ref="G9:G33"/>
+    <mergeCell ref="H9:H33"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -2031,11 +2072,6 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F9:F33"/>
-    <mergeCell ref="G9:G33"/>
-    <mergeCell ref="H9:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2054,7 +2090,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,11 +2101,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2113,24 +2149,48 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="23">
+        <v>45407</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="24">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="24"/>
+      <c r="A10" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="24">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -2184,7 +2244,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>2.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,8 +2297,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,11 +2309,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2297,19 +2357,37 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="24"/>
+      <c r="A9" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="24">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
@@ -2368,7 +2446,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,59 +2493,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2925,28 +2956,65 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2972,9 +3040,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_Nael_Sergio.xlsx
+++ b/133_GESTPROJ_Nael_Sergio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nael\projet\133_Projet_Groupe2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\naelcurrat\133_Projet_Groupe2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CA599-1EA2-41AF-ABB5-B99FD7E278E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D876BC1A-89DE-4B71-A45B-2975270294FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="825" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>Planning</t>
   </si>
@@ -366,6 +366,24 @@
   </si>
   <si>
     <t>J'ai finis mon APIRest2 et je l'ai héberger sur le serveur Docker</t>
+  </si>
+  <si>
+    <t>J'ai continuer l'implémentation de l'APIGTW</t>
+  </si>
+  <si>
+    <t>J'ai fini de tester en local mon backend et j'ai hebergé le backend avec mon collègue</t>
+  </si>
+  <si>
+    <t>J'ai finit mon APIGTW et j'ai commencer à tester en local mon backend</t>
+  </si>
+  <si>
+    <t>Problème</t>
+  </si>
+  <si>
+    <t>J'ai eu un problème de merge avec Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai eu un problème avec ma méthode checkReponse dans l'APIRest1 </t>
   </si>
 </sst>
 </file>
@@ -966,18 +984,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,6 +991,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,6 +1016,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,8 +1332,8 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1326,64 +1344,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="51">
         <v>300232</v>
       </c>
-      <c r="N3" s="51"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1393,32 +1411,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="52" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="52" t="s">
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -1487,13 +1505,13 @@
       <c r="E9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="56" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="12"/>
@@ -1512,9 +1530,9 @@
       <c r="C10" s="7"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="59"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="12"/>
       <c r="J10" s="7"/>
       <c r="K10" s="13"/>
@@ -1533,9 +1551,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="59"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="39"/>
       <c r="J11" s="7"/>
       <c r="K11" s="13"/>
@@ -1554,9 +1572,9 @@
       <c r="C12" s="7"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="59"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="47" t="s">
         <v>57</v>
       </c>
@@ -1577,9 +1595,9 @@
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="59"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="46" t="s">
         <v>57</v>
       </c>
@@ -1602,9 +1620,9 @@
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="59"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="47" t="s">
         <v>57</v>
       </c>
@@ -1625,9 +1643,9 @@
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="59"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="46" t="s">
         <v>57</v>
       </c>
@@ -1648,9 +1666,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="59"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="10" t="s">
         <v>57</v>
       </c>
@@ -1673,9 +1691,9 @@
       <c r="C17" s="7"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="59"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="12"/>
       <c r="J17" s="47" t="s">
         <v>57</v>
@@ -1696,9 +1714,9 @@
       <c r="C18" s="7"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="59"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="12"/>
       <c r="J18" s="46" t="s">
         <v>57</v>
@@ -1719,9 +1737,9 @@
       <c r="C19" s="7"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="59"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="12"/>
       <c r="J19" s="7"/>
       <c r="K19" s="13"/>
@@ -1740,9 +1758,9 @@
       <c r="C20" s="7"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="59"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="12"/>
       <c r="J20" s="6" t="s">
         <v>57</v>
@@ -1763,9 +1781,9 @@
       <c r="C21" s="7"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="59"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="57"/>
       <c r="I21" s="12"/>
       <c r="J21" s="7"/>
       <c r="K21" s="13"/>
@@ -1782,9 +1800,9 @@
       <c r="C22" s="7"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="59"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="12"/>
       <c r="J22" s="7"/>
       <c r="K22" s="13"/>
@@ -1803,9 +1821,9 @@
       <c r="C23" s="7"/>
       <c r="D23" s="13"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="59"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="12"/>
       <c r="J23" s="7"/>
       <c r="K23" s="13"/>
@@ -1824,9 +1842,9 @@
       <c r="C24" s="7"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="59"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="12"/>
       <c r="J24" s="7"/>
       <c r="K24" s="11" t="s">
@@ -1849,9 +1867,9 @@
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="59"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="12"/>
       <c r="J25" s="7"/>
       <c r="K25" s="11" t="s">
@@ -1864,9 +1882,15 @@
       <c r="N25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="13"/>
+      <c r="O25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1876,9 +1900,9 @@
       <c r="C26" s="7"/>
       <c r="D26" s="13"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="59"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="7"/>
       <c r="K26" s="13"/>
@@ -1891,7 +1915,9 @@
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="13"/>
+      <c r="Q26" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -1901,9 +1927,9 @@
       <c r="C27" s="7"/>
       <c r="D27" s="13"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="59"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="12"/>
       <c r="J27" s="7"/>
       <c r="K27" s="13"/>
@@ -1922,9 +1948,9 @@
       <c r="C28" s="7"/>
       <c r="D28" s="13"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="59"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="7"/>
       <c r="K28" s="13"/>
@@ -1932,8 +1958,12 @@
       <c r="M28" s="7"/>
       <c r="N28" s="13"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="11"/>
+      <c r="P28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -1941,9 +1971,9 @@
       <c r="C29" s="7"/>
       <c r="D29" s="13"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="59"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="12"/>
       <c r="J29" s="7"/>
       <c r="K29" s="13"/>
@@ -1960,9 +1990,9 @@
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="59"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="30"/>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -1981,9 +2011,9 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="59"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="30"/>
       <c r="J31" s="31"/>
       <c r="K31" s="32"/>
@@ -1992,7 +2022,9 @@
       <c r="N31" s="32"/>
       <c r="O31" s="30"/>
       <c r="P31" s="36"/>
-      <c r="Q31" s="37"/>
+      <c r="Q31" s="37" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
@@ -2000,9 +2032,9 @@
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="59"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="30"/>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
@@ -2027,18 +2059,24 @@
       <c r="E33" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="60"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="58"/>
       <c r="I33" s="43"/>
       <c r="J33" s="41"/>
       <c r="K33" s="42"/>
       <c r="L33" s="43"/>
       <c r="M33" s="41"/>
       <c r="N33" s="42"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="42"/>
+      <c r="O33" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="42" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
@@ -2060,11 +2098,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F9:F33"/>
-    <mergeCell ref="G9:G33"/>
-    <mergeCell ref="H9:H33"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -2072,6 +2105,11 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F9:F33"/>
+    <mergeCell ref="G9:G33"/>
+    <mergeCell ref="H9:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2089,8 +2127,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C12"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,11 +2139,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2193,28 +2231,54 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="24"/>
+      <c r="A13" s="23">
+        <v>45414</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>45415</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>45415</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="24">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C16" s="24"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2244,7 +2308,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>13</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2282,7 +2346,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 133&amp;RJournal de travail</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
@@ -2297,7 +2361,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2309,11 +2373,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2484,7 +2548,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 133&amp;RJournal de travail</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
@@ -2493,15 +2557,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="35" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c91a1a7a62e987314df808fa39da4b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3023738844047246cab05fc3830165" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2955,6 +3010,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3012,14 +3076,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3035,6 +3091,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/133_GESTPROJ_Nael_Sergio.xlsx
+++ b/133_GESTPROJ_Nael_Sergio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\naelcurrat\133_Projet_Groupe2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sergitoo42\projet133\133_Projet_Groupe2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D876BC1A-89DE-4B71-A45B-2975270294FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1795FC-1B44-465F-8BC6-6AD28252F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="825" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>Planning</t>
   </si>
@@ -371,9 +371,6 @@
     <t>J'ai continuer l'implémentation de l'APIGTW</t>
   </si>
   <si>
-    <t>J'ai fini de tester en local mon backend et j'ai hebergé le backend avec mon collègue</t>
-  </si>
-  <si>
     <t>J'ai finit mon APIGTW et j'ai commencer à tester en local mon backend</t>
   </si>
   <si>
@@ -384,6 +381,9 @@
   </si>
   <si>
     <t xml:space="preserve">J'ai eu un problème avec ma méthode checkReponse dans l'APIRest1 </t>
+  </si>
+  <si>
+    <t>J'ai fini de tester en local mon backend et avec mon collegue nous avons hebergé.</t>
   </si>
 </sst>
 </file>
@@ -984,6 +984,18 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,12 +1003,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,12 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,7 +1332,7 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -1344,64 +1344,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="49">
         <v>300232</v>
       </c>
-      <c r="N3" s="52"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1411,32 +1411,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="48" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="48" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="48" t="s">
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -1505,13 +1505,13 @@
       <c r="E9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="58" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="12"/>
@@ -1530,9 +1530,9 @@
       <c r="C10" s="7"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="57"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="12"/>
       <c r="J10" s="7"/>
       <c r="K10" s="13"/>
@@ -1551,9 +1551,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="39"/>
       <c r="J11" s="7"/>
       <c r="K11" s="13"/>
@@ -1572,9 +1572,9 @@
       <c r="C12" s="7"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="47" t="s">
         <v>57</v>
       </c>
@@ -1595,9 +1595,9 @@
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="46" t="s">
         <v>57</v>
       </c>
@@ -1620,9 +1620,9 @@
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="47" t="s">
         <v>57</v>
       </c>
@@ -1643,9 +1643,9 @@
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="46" t="s">
         <v>57</v>
       </c>
@@ -1666,9 +1666,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="10" t="s">
         <v>57</v>
       </c>
@@ -1691,9 +1691,9 @@
       <c r="C17" s="7"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="12"/>
       <c r="J17" s="47" t="s">
         <v>57</v>
@@ -1714,9 +1714,9 @@
       <c r="C18" s="7"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="57"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="12"/>
       <c r="J18" s="46" t="s">
         <v>57</v>
@@ -1737,9 +1737,9 @@
       <c r="C19" s="7"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="12"/>
       <c r="J19" s="7"/>
       <c r="K19" s="13"/>
@@ -1758,9 +1758,9 @@
       <c r="C20" s="7"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="12"/>
       <c r="J20" s="6" t="s">
         <v>57</v>
@@ -1781,9 +1781,9 @@
       <c r="C21" s="7"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="57"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="12"/>
       <c r="J21" s="7"/>
       <c r="K21" s="13"/>
@@ -1800,9 +1800,9 @@
       <c r="C22" s="7"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="57"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="59"/>
       <c r="I22" s="12"/>
       <c r="J22" s="7"/>
       <c r="K22" s="13"/>
@@ -1821,9 +1821,9 @@
       <c r="C23" s="7"/>
       <c r="D23" s="13"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="57"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="12"/>
       <c r="J23" s="7"/>
       <c r="K23" s="13"/>
@@ -1842,9 +1842,9 @@
       <c r="C24" s="7"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="57"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="12"/>
       <c r="J24" s="7"/>
       <c r="K24" s="11" t="s">
@@ -1867,9 +1867,9 @@
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="57"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="12"/>
       <c r="J25" s="7"/>
       <c r="K25" s="11" t="s">
@@ -1900,9 +1900,9 @@
       <c r="C26" s="7"/>
       <c r="D26" s="13"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="57"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="12"/>
       <c r="J26" s="7"/>
       <c r="K26" s="13"/>
@@ -1927,9 +1927,9 @@
       <c r="C27" s="7"/>
       <c r="D27" s="13"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="12"/>
       <c r="J27" s="7"/>
       <c r="K27" s="13"/>
@@ -1948,9 +1948,9 @@
       <c r="C28" s="7"/>
       <c r="D28" s="13"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="57"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="12"/>
       <c r="J28" s="7"/>
       <c r="K28" s="13"/>
@@ -1971,9 +1971,9 @@
       <c r="C29" s="7"/>
       <c r="D29" s="13"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="57"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="59"/>
       <c r="I29" s="12"/>
       <c r="J29" s="7"/>
       <c r="K29" s="13"/>
@@ -1990,9 +1990,9 @@
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="57"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="30"/>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -2011,9 +2011,9 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="57"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="30"/>
       <c r="J31" s="31"/>
       <c r="K31" s="32"/>
@@ -2032,9 +2032,9 @@
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="57"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="30"/>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
@@ -2059,9 +2059,9 @@
       <c r="E33" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="58"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="43"/>
       <c r="J33" s="41"/>
       <c r="K33" s="42"/>
@@ -2098,6 +2098,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F9:F33"/>
+    <mergeCell ref="G9:G33"/>
+    <mergeCell ref="H9:H33"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -2105,11 +2110,6 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F9:F33"/>
-    <mergeCell ref="G9:G33"/>
-    <mergeCell ref="H9:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2127,8 +2127,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,11 +2139,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2246,7 +2246,7 @@
         <v>45415</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="24">
         <v>3.5</v>
@@ -2257,7 +2257,7 @@
         <v>45415</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C15" s="24">
         <v>3.5</v>
@@ -2265,19 +2265,19 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="24"/>
     </row>
@@ -2359,10 +2359,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,11 +2373,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2454,23 +2454,45 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="24"/>
+      <c r="A12" s="23">
+        <v>45414</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>45415</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>45415</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="24">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2498,48 +2520,43 @@
       <c r="B20" s="20"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="24">
-        <f>SUM(C8:C21)</f>
-        <v>9.5</v>
+      <c r="C21" s="24">
+        <f>SUM(C8:C20)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
-        <v>14</v>
+      <c r="B24" s="26" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
-        <v>15</v>
+      <c r="B25" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
-        <v>16</v>
+      <c r="B26" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
-        <v>17</v>
+      <c r="B27" s="27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2557,6 +2574,71 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="35" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c91a1a7a62e987314df808fa39da4b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3023738844047246cab05fc3830165" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -3010,72 +3092,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3093,30 +3136,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>